--- a/hailuoai_automator/record/prompts.xlsx
+++ b/hailuoai_automator/record/prompts.xlsx
@@ -546,7 +546,11 @@
           <t>[左移,推进,右摇]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>record\reference_image\2 (1).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -559,7 +563,11 @@
           <t>[推进,上升]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>record\reference_image\3 (4).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -572,7 +580,11 @@
           <t>[左移,跟随]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>record\reference_image\2 (3).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -585,7 +597,11 @@
           <t>[右移,跟随]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>record\reference_image\1 (1).png</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -598,7 +614,11 @@
           <t>[下降,上摇]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>record\reference_image\3 (2).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -611,7 +631,11 @@
           <t>[左移,上升]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>record\reference_image\2 (1).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -624,7 +648,11 @@
           <t>[左摇,变焦推进]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>record\reference_image\3 (4).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -637,7 +665,11 @@
           <t>[右摇,变焦推进]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>record\reference_image\2 (5).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -650,7 +682,11 @@
           <t>[左移]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>record\reference_image\2 (4).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -663,7 +699,11 @@
           <t>[右移]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>record\reference_image\3 (3).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -676,7 +716,11 @@
           <t>[推进]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>record\reference_image\2 (1).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -689,7 +733,11 @@
           <t>[拉远]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>record\reference_image\3 (1).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -702,7 +750,11 @@
           <t>[下降]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>record\reference_image\3 (2).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -715,7 +767,11 @@
           <t>[上摇]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>record\reference_image\3 (2).jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -728,7 +784,11 @@
           <t>[下摇]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>record\reference_image\1 (3).png</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
